--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3153.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3153.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.120679597911568</v>
+        <v>1.016767382621765</v>
       </c>
       <c r="B1">
-        <v>2.046545065271377</v>
+        <v>1.678268313407898</v>
       </c>
       <c r="C1">
-        <v>2.728958586280011</v>
+        <v>4.36162281036377</v>
       </c>
       <c r="D1">
-        <v>3.132498381255932</v>
+        <v>2.417491436004639</v>
       </c>
       <c r="E1">
-        <v>3.907408959305783</v>
+        <v>1.356452226638794</v>
       </c>
     </row>
   </sheetData>
